--- a/test-excel-file.xlsx
+++ b/test-excel-file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgracz\Desktop\selenium-practice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Documents\GitHub\aim-bot-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3677B7F9-EC01-403C-9580-FD16BB28549E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F8190-4804-4C9F-BB69-FC619E514CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>madison1848</t>
+    <t>mattsNewPassword!</t>
   </si>
 </sst>
 </file>
@@ -414,17 +414,17 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD4"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5546875" customWidth="1"/>
-    <col min="2" max="2" width="56.5546875" customWidth="1"/>
-    <col min="3" max="3" width="38.44140625" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
+    <col min="3" max="3" width="38.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -435,7 +435,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -443,7 +443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -462,7 +462,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -470,7 +470,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>1</v>
       </c>
@@ -481,7 +481,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -489,7 +489,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -497,7 +497,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -505,7 +505,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -513,7 +513,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>1</v>
       </c>
@@ -524,7 +524,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>2</v>
       </c>

--- a/test-excel-file.xlsx
+++ b/test-excel-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Documents\GitHub\aim-bot-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{585F8190-4804-4C9F-BB69-FC619E514CDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54511780-4ECF-482F-AAF4-AB9DFEFD730F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
   <si>
     <t>Command</t>
   </si>
@@ -72,9 +72,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>gracz</t>
-  </si>
-  <si>
     <t>mainForm:browse:0:ae_s_sec_c_login</t>
   </si>
   <si>
@@ -82,6 +79,12 @@
   </si>
   <si>
     <t>mattsNewPassword!</t>
+  </si>
+  <si>
+    <t>&lt;username&gt;</t>
+  </si>
+  <si>
+    <t>&lt;password&gt;</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,7 +481,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -494,7 +497,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -507,7 +510,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
@@ -521,7 +524,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">

--- a/test-excel-file.xlsx
+++ b/test-excel-file.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattg\Documents\GitHub\aim-bot-prototype\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54511780-4ECF-482F-AAF4-AB9DFEFD730F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994D303D-FBF9-41F4-9A2A-87F83AFCE178}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Command</t>
   </si>
@@ -78,13 +78,10 @@
     <t>Clear</t>
   </si>
   <si>
-    <t>mattsNewPassword!</t>
-  </si>
-  <si>
-    <t>&lt;username&gt;</t>
-  </si>
-  <si>
-    <t>&lt;password&gt;</t>
+    <t>gracz</t>
+  </si>
+  <si>
+    <t>passwerd</t>
   </si>
 </sst>
 </file>
@@ -417,7 +414,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -481,7 +478,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -524,7 +521,7 @@
         <v>9</v>
       </c>
       <c r="C11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
